--- a/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
+++ b/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\hydgn\HPtFM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hptfm/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0BA50-2B8B-9B4D-8F23-40ED58AB680D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25815" windowHeight="11970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,7 +156,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +169,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,19 +449,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="6">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -467,52 +472,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -524,7 +529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
@@ -534,15 +539,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.73046875" customWidth="1"/>
-    <col min="2" max="8" width="13.1328125" customWidth="1"/>
-    <col min="9" max="9" width="15.1328125" customWidth="1"/>
-    <col min="10" max="11" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="8" width="13.1640625" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="11" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>28</v>
       </c>
@@ -577,7 +582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -612,7 +617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -647,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -682,7 +687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -717,7 +722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>12</v>
       </c>

--- a/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
+++ b/InputData/hydgn/HPtFM/Hydrogen Pathway to Fuel Mappings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/hydgn/hptfm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/hydgn/hptfm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07B0BA50-2B8B-9B4D-8F23-40ED58AB680D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9254AD-6379-DD46-9E4B-A4A54A85D200}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25820" windowHeight="11980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
